--- a/expression_tree_data.xlsx
+++ b/expression_tree_data.xlsx
@@ -759,10 +759,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="101.48828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="100.4453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="107.72265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="106.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.9140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/expression_tree_data.xlsx
+++ b/expression_tree_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="227">
   <si>
     <t>SÍMBOLO</t>
   </si>
@@ -29,166 +29,376 @@
     <t>.</t>
   </si>
   <si>
-    <t>16, 1, 19, 4, 21, 6, 9, 11, 13</t>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 78, 80, 18, 83, 20, 85, 23, 87, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 79, 17, 82, 19, 84, 22, 86, 24, 89, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 78, 80, 18, 83, 20, 85, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 79, 17, 82, 19, 84, 22, 86, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 78, 80, 18, 83, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 79, 17, 82, 19, 84, 22, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 78, 80, 18, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 79, 17, 82, 19, 22, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 78, 18, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 79, 17, 19, 22, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 18, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 17, 19, 22, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 18, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 17, 19, 22, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 11, 18, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 67, 36, 69, 39, 71, 41, 73, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 33, 66, 35, 4, 68, 37, 70, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 61, 30</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 67, 36, 69, 39, 71, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 33, 66, 35, 4, 68, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 61, 30</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 67, 36, 69, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 33, 66, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 61, 30</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 67, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 61, 30</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 61, 30</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 30</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 27, 30</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 29</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 23, 25, 27, 30</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 26, 29</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 20, 23, 25, 27, 30</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 22, 24, 26, 29</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 18, 20, 23, 25, 27, 30</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 19, 22, 24, 26, 29</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 37, 7, 40, 11, 18, 20, 23, 25, 27, 30</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 36, 39, 41, 10, 17, 19, 22, 24, 26, 29</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 37, 7, 11, 18, 20, 23, 25, 27, 30</t>
+  </si>
+  <si>
+    <t>32, 17, 34, 3, 19, 36, 22, 39, 24, 10, 26, 29</t>
+  </si>
+  <si>
+    <t>1, 33, 18, 35, 4, 20, 7, 23, 25, 11, 27, 30</t>
+  </si>
+  <si>
+    <t>32, 17, 34, 3, 19, 36, 22, 24, 10, 26, 29</t>
+  </si>
+  <si>
+    <t>1, 33, 18, 4, 20, 7, 23, 25, 11, 27, 30</t>
+  </si>
+  <si>
+    <t>32, 17, 34, 3, 19, 22, 24, 10, 26, 29</t>
+  </si>
+  <si>
+    <t>1, 18, 4, 20, 7, 23, 25, 11, 27, 30</t>
+  </si>
+  <si>
+    <t>32, 17, 3, 19, 22, 24, 10, 26, 29</t>
+  </si>
+  <si>
+    <t>1, 18, 4, 20, 7, 23, 25, 11, 27</t>
+  </si>
+  <si>
+    <t>17, 3, 19, 22, 24, 10, 26, 29</t>
+  </si>
+  <si>
+    <t>1, 18, 4, 20, 7, 23, 25, 11</t>
+  </si>
+  <si>
+    <t>17, 3, 19, 22, 24, 10, 26</t>
+  </si>
+  <si>
+    <t>1, 18, 4, 20, 7, 23, 11</t>
+  </si>
+  <si>
+    <t>17, 3, 19, 22, 24, 10</t>
+  </si>
+  <si>
+    <t>1, 18, 4, 20, 7, 11</t>
+  </si>
+  <si>
+    <t>17, 3, 19, 22, 10</t>
+  </si>
+  <si>
+    <t>1, 18, 4, 7, 11</t>
+  </si>
+  <si>
+    <t>17, 3, 19, 10</t>
+  </si>
+  <si>
+    <t>1, 4, 7, 11</t>
+  </si>
+  <si>
+    <t>17, 3, 10</t>
+  </si>
+  <si>
+    <t>1, 4, 7</t>
+  </si>
+  <si>
+    <t>3, 10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>DIGITO</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>4, 7</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6, 9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>CHARSET</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11, 12, 13</t>
+  </si>
+  <si>
+    <t>LETRA</t>
+  </si>
+  <si>
+    <t>12, 13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>RESERVADAS()</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>T5</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>18, 3, 20, 5, 22, 8, 10, 12, 15</t>
-  </si>
-  <si>
-    <t>16, 1, 19, 4, 6, 9, 11, 13</t>
-  </si>
-  <si>
-    <t>18, 3, 20, 5, 8, 10, 12, 15</t>
-  </si>
-  <si>
-    <t>16, 1, 4, 6, 9, 11, 13</t>
-  </si>
-  <si>
-    <t>18, 3, 5, 8, 10, 12, 15</t>
-  </si>
-  <si>
-    <t>1, 4, 6, 9, 11, 13</t>
-  </si>
-  <si>
-    <t>3, 5, 8, 10, 12, 15</t>
-  </si>
-  <si>
-    <t>1, 4, 6, 9, 11</t>
-  </si>
-  <si>
-    <t>3, 5, 8, 10, 12</t>
-  </si>
-  <si>
-    <t>1, 4, 6, 9</t>
-  </si>
-  <si>
-    <t>3, 5, 8, 10</t>
-  </si>
-  <si>
-    <t>1, 4, 6</t>
-  </si>
-  <si>
-    <t>3, 5, 8</t>
-  </si>
-  <si>
-    <t>1, 4</t>
-  </si>
-  <si>
-    <t>3, 5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>DIGITO</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>LETRA</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>&lt;</t>
+    <t>24</t>
   </si>
   <si>
     <t>T6</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>&gt;</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>T7</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>T8</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>T9</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>'+'</t>
@@ -197,16 +407,289 @@
     <t>T10</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
     <t>T11</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>'*'</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>'('</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>')'</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>'.'</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>T51</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>T53</t>
   </si>
   <si>
     <t>#</t>
@@ -270,16 +753,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.51953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.01953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.1328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="107.72265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="106.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.9140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,7 +907,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -438,13 +921,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -452,13 +935,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -466,27 +949,27 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -494,13 +977,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -508,13 +991,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -522,13 +1005,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -536,13 +1019,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -550,13 +1033,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -564,13 +1047,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -578,13 +1061,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -592,13 +1075,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -606,13 +1089,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -620,13 +1103,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -634,13 +1117,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -648,13 +1131,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -662,13 +1145,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -676,13 +1159,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -690,13 +1173,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -704,13 +1187,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -718,13 +1201,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -732,13 +1215,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -746,13 +1229,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -760,13 +1243,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -774,27 +1257,27 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -802,13 +1285,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -816,13 +1299,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -830,13 +1313,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -847,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -858,13 +1341,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -872,13 +1355,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -886,13 +1369,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -900,13 +1383,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -914,13 +1397,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -928,15 +1411,1905 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" t="s">
+        <v>142</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" t="s">
+        <v>141</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" t="s">
+        <v>142</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109" t="s">
+        <v>147</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" t="s">
+        <v>154</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" t="s">
+        <v>156</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" t="s">
+        <v>153</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" t="s">
+        <v>156</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>155</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>159</v>
+      </c>
+      <c r="C120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>163</v>
+      </c>
+      <c r="B122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" t="s">
+        <v>162</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>164</v>
+      </c>
+      <c r="B123" t="s">
+        <v>161</v>
+      </c>
+      <c r="C123" t="s">
+        <v>161</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>166</v>
+      </c>
+      <c r="C125" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" t="s">
+        <v>166</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" t="s">
+        <v>168</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132" t="s">
+        <v>173</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134" t="s">
+        <v>172</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" t="s">
+        <v>174</v>
+      </c>
+      <c r="C135" t="s">
+        <v>174</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>176</v>
+      </c>
+      <c r="B136" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" t="s">
+        <v>173</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>177</v>
+      </c>
+      <c r="C137" t="s">
+        <v>178</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>180</v>
+      </c>
+      <c r="B140" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>181</v>
+      </c>
+      <c r="B141" t="s">
+        <v>178</v>
+      </c>
+      <c r="C141" t="s">
+        <v>178</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>184</v>
+      </c>
+      <c r="B143" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143" t="s">
+        <v>182</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>185</v>
+      </c>
+      <c r="B144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" t="s">
+        <v>183</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" t="s">
+        <v>187</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>188</v>
+      </c>
+      <c r="B146" t="s">
+        <v>186</v>
+      </c>
+      <c r="C146" t="s">
+        <v>186</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>189</v>
+      </c>
+      <c r="B147" t="s">
+        <v>187</v>
+      </c>
+      <c r="C147" t="s">
+        <v>187</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>190</v>
+      </c>
+      <c r="C148" t="s">
+        <v>191</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>99</v>
+      </c>
+      <c r="B149" t="s">
+        <v>190</v>
+      </c>
+      <c r="C149" t="s">
+        <v>190</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>192</v>
+      </c>
+      <c r="B150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C150" t="s">
+        <v>191</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>193</v>
+      </c>
+      <c r="C151" t="s">
+        <v>194</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>101</v>
+      </c>
+      <c r="B152" t="s">
+        <v>193</v>
+      </c>
+      <c r="C152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>195</v>
+      </c>
+      <c r="B153" t="s">
+        <v>194</v>
+      </c>
+      <c r="C153" t="s">
+        <v>194</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>196</v>
+      </c>
+      <c r="C154" t="s">
+        <v>197</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155" t="s">
+        <v>196</v>
+      </c>
+      <c r="C155" t="s">
+        <v>196</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>198</v>
+      </c>
+      <c r="B156" t="s">
+        <v>197</v>
+      </c>
+      <c r="C156" t="s">
+        <v>197</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>199</v>
+      </c>
+      <c r="C157" t="s">
+        <v>200</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" t="s">
+        <v>199</v>
+      </c>
+      <c r="C158" t="s">
+        <v>199</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>201</v>
+      </c>
+      <c r="B159" t="s">
+        <v>200</v>
+      </c>
+      <c r="C159" t="s">
+        <v>200</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" t="s">
+        <v>203</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>204</v>
+      </c>
+      <c r="B161" t="s">
+        <v>202</v>
+      </c>
+      <c r="C161" t="s">
+        <v>202</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>205</v>
+      </c>
+      <c r="B162" t="s">
+        <v>203</v>
+      </c>
+      <c r="C162" t="s">
+        <v>203</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" t="s">
+        <v>207</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>208</v>
+      </c>
+      <c r="B164" t="s">
+        <v>206</v>
+      </c>
+      <c r="C164" t="s">
+        <v>206</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>209</v>
+      </c>
+      <c r="B165" t="s">
+        <v>207</v>
+      </c>
+      <c r="C165" t="s">
+        <v>207</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>210</v>
+      </c>
+      <c r="C166" t="s">
+        <v>211</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" t="s">
+        <v>212</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>188</v>
+      </c>
+      <c r="B168" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" t="s">
+        <v>210</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" t="s">
+        <v>212</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>213</v>
+      </c>
+      <c r="B170" t="s">
+        <v>211</v>
+      </c>
+      <c r="C170" t="s">
+        <v>211</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>214</v>
+      </c>
+      <c r="C171" t="s">
+        <v>215</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>216</v>
+      </c>
+      <c r="B172" t="s">
+        <v>214</v>
+      </c>
+      <c r="C172" t="s">
+        <v>214</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>217</v>
+      </c>
+      <c r="B173" t="s">
+        <v>215</v>
+      </c>
+      <c r="C173" t="s">
+        <v>215</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>218</v>
+      </c>
+      <c r="C174" t="s">
+        <v>219</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>220</v>
+      </c>
+      <c r="B175" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" t="s">
+        <v>218</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>221</v>
+      </c>
+      <c r="B176" t="s">
+        <v>219</v>
+      </c>
+      <c r="C176" t="s">
+        <v>219</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>222</v>
+      </c>
+      <c r="C177" t="s">
+        <v>223</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>222</v>
+      </c>
+      <c r="C178" t="s">
+        <v>224</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>216</v>
+      </c>
+      <c r="B179" t="s">
+        <v>222</v>
+      </c>
+      <c r="C179" t="s">
+        <v>222</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>105</v>
+      </c>
+      <c r="B180" t="s">
+        <v>224</v>
+      </c>
+      <c r="C180" t="s">
+        <v>224</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>225</v>
+      </c>
+      <c r="B181" t="s">
+        <v>223</v>
+      </c>
+      <c r="C181" t="s">
+        <v>223</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>226</v>
+      </c>
+      <c r="B182" t="s">
         <v>6</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C182" t="s">
         <v>6</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D182" t="s">
         <v>7</v>
       </c>
     </row>

--- a/expression_tree_data.xlsx
+++ b/expression_tree_data.xlsx
@@ -759,10 +759,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="107.72265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="106.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.9140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="101.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="100.4453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.1875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/expression_tree_data.xlsx
+++ b/expression_tree_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="227">
   <si>
     <t>SÍMBOLO</t>
   </si>
@@ -29,10 +29,10 @@
     <t>.</t>
   </si>
   <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 78, 80, 18, 83, 20, 85, 23, 87, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
-  </si>
-  <si>
-    <t>90</t>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 81, 18, 83, 21, 85, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>88</t>
   </si>
   <si>
     <t>False</t>
@@ -41,175 +41,175 @@
     <t>|</t>
   </si>
   <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 79, 17, 82, 19, 84, 22, 86, 24, 89, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 78, 80, 18, 83, 20, 85, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 79, 17, 82, 19, 84, 22, 86, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 78, 80, 18, 83, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 79, 17, 82, 19, 84, 22, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 78, 80, 18, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 79, 17, 82, 19, 22, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 78, 18, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 79, 17, 19, 22, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 18, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 17, 19, 22, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 18, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 17, 19, 22, 24, 26, 29, 32, 34, 36, 39, 41, 45, 49, 53, 57, 60, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 11, 18, 20, 23, 25, 27, 30, 33, 35, 37, 40, 42, 46, 50, 54, 58, 61</t>
-  </si>
-  <si>
-    <t>32, 65, 34, 3, 67, 36, 69, 39, 71, 41, 73, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 33, 66, 35, 4, 68, 37, 70, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 61, 30</t>
-  </si>
-  <si>
-    <t>32, 65, 34, 3, 67, 36, 69, 39, 71, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 33, 66, 35, 4, 68, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 61, 30</t>
-  </si>
-  <si>
-    <t>32, 65, 34, 3, 67, 36, 69, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 33, 66, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 61, 30</t>
-  </si>
-  <si>
-    <t>32, 65, 34, 3, 67, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 61, 30</t>
-  </si>
-  <si>
-    <t>32, 65, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 61, 30</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29, 63</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 58, 27, 30</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 60, 29</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 54, 23, 25, 27, 30</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 57, 26, 29</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 50, 20, 23, 25, 27, 30</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 53, 22, 24, 26, 29</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 46, 18, 20, 23, 25, 27, 30</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 49, 19, 22, 24, 26, 29</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 37, 7, 40, 42, 11, 18, 20, 23, 25, 27, 30</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 36, 39, 41, 10, 45, 17, 19, 22, 24, 26, 29</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 37, 7, 40, 11, 18, 20, 23, 25, 27, 30</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 36, 39, 41, 10, 17, 19, 22, 24, 26, 29</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 37, 7, 11, 18, 20, 23, 25, 27, 30</t>
-  </si>
-  <si>
-    <t>32, 17, 34, 3, 19, 36, 22, 39, 24, 10, 26, 29</t>
-  </si>
-  <si>
-    <t>1, 33, 18, 35, 4, 20, 7, 23, 25, 11, 27, 30</t>
-  </si>
-  <si>
-    <t>32, 17, 34, 3, 19, 36, 22, 24, 10, 26, 29</t>
-  </si>
-  <si>
-    <t>1, 33, 18, 4, 20, 7, 23, 25, 11, 27, 30</t>
-  </si>
-  <si>
-    <t>32, 17, 34, 3, 19, 22, 24, 10, 26, 29</t>
-  </si>
-  <si>
-    <t>1, 18, 4, 20, 7, 23, 25, 11, 27, 30</t>
-  </si>
-  <si>
-    <t>32, 17, 3, 19, 22, 24, 10, 26, 29</t>
-  </si>
-  <si>
-    <t>1, 18, 4, 20, 7, 23, 25, 11, 27</t>
-  </si>
-  <si>
-    <t>17, 3, 19, 22, 24, 10, 26, 29</t>
-  </si>
-  <si>
-    <t>1, 18, 4, 20, 7, 23, 25, 11</t>
-  </si>
-  <si>
-    <t>17, 3, 19, 22, 24, 10, 26</t>
-  </si>
-  <si>
-    <t>1, 18, 4, 20, 7, 23, 11</t>
-  </si>
-  <si>
-    <t>17, 3, 19, 22, 24, 10</t>
-  </si>
-  <si>
-    <t>1, 18, 4, 20, 7, 11</t>
-  </si>
-  <si>
-    <t>17, 3, 19, 22, 10</t>
-  </si>
-  <si>
-    <t>1, 18, 4, 7, 11</t>
-  </si>
-  <si>
-    <t>17, 3, 19, 10</t>
-  </si>
-  <si>
-    <t>1, 4, 7, 11</t>
-  </si>
-  <si>
-    <t>17, 3, 10</t>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 82, 20, 84, 22, 87, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 81, 18, 83, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 82, 20, 84, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 81, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 82, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 15, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 15, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 67, 37, 69, 39, 71, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 67, 37, 69, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 33, 66, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 62, 31</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 67, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 62, 31</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 62, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 24, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 20, 22, 24, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 17, 20, 22, 24, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 15, 17, 20, 22, 24, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 17, 34, 3, 20, 37, 22, 24, 10, 27, 30, 15</t>
+  </si>
+  <si>
+    <t>1, 33, 4, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 17, 34, 3, 20, 22, 24, 10, 27, 30, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 21, 7, 23, 25, 11, 28, 14, 31</t>
+  </si>
+  <si>
+    <t>32, 17, 3, 20, 22, 24, 10, 27, 30, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 21, 7, 23, 25, 11, 28, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 20, 22, 24, 10, 27, 30, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 21, 7, 23, 25, 11, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 20, 22, 24, 10, 27, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 21, 7, 23, 11, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 20, 22, 24, 10, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 21, 7, 11, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 20, 22, 10, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 7, 11, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 20, 10, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 4, 7, 11, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 10, 15</t>
+  </si>
+  <si>
+    <t>1, 4, 7, 11, 14</t>
+  </si>
+  <si>
+    <t>3, 10, 15</t>
   </si>
   <si>
     <t>1, 4, 7</t>
@@ -281,316 +281,325 @@
     <t>T2</t>
   </si>
   <si>
+    <t>11, 14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 14</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
+    <t>11, 12, 13</t>
+  </si>
+  <si>
+    <t>LETRA</t>
+  </si>
+  <si>
+    <t>12, 13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>RESERVADAS()</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>11, 12, 13</t>
-  </si>
-  <si>
-    <t>LETRA</t>
-  </si>
-  <si>
-    <t>12, 13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>=</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>'+'</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>'*'</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>'('</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>')'</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>'.'</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
   <si>
     <t>{</t>
   </si>
   <si>
-    <t>RESERVADAS()</t>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
   <si>
     <t>}</t>
   </si>
   <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>'+'</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>'*'</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>'('</t>
-  </si>
-  <si>
-    <t>T40</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>')'</t>
-  </si>
-  <si>
-    <t>T41</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>T42</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>'.'</t>
-  </si>
-  <si>
-    <t>T43</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>T44</t>
+    <t>T45</t>
   </si>
   <si>
     <t>70</t>
@@ -599,7 +608,7 @@
     <t>71</t>
   </si>
   <si>
-    <t>T45</t>
+    <t>T46</t>
   </si>
   <si>
     <t>72</t>
@@ -608,7 +617,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>T46</t>
+    <t>T47</t>
   </si>
   <si>
     <t>74</t>
@@ -617,7 +626,10 @@
     <t>75</t>
   </si>
   <si>
-    <t>T47</t>
+    <t/>
+  </si>
+  <si>
+    <t>T48</t>
   </si>
   <si>
     <t>76</t>
@@ -626,34 +638,34 @@
     <t>77</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>T48</t>
+    <t>]</t>
+  </si>
+  <si>
+    <t>T49</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>79</t>
   </si>
   <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>T49</t>
-  </si>
-  <si>
-    <t>80</t>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
   <si>
     <t>82</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>T50</t>
+    <t>:</t>
+  </si>
+  <si>
+    <t>T51</t>
   </si>
   <si>
     <t>83</t>
@@ -662,31 +674,19 @@
     <t>84</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>T51</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>T52</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>86</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>T52</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>T53</t>
@@ -753,14 +753,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="107.72265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="111.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="106.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9140625" customWidth="true" bestFit="true"/>
   </cols>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>89</v>
@@ -1512,10 +1512,10 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1523,13 +1523,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1537,27 +1537,27 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
         <v>95</v>
       </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
         <v>96</v>
@@ -1574,18 +1574,18 @@
         <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1593,13 +1593,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1607,13 +1607,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1621,13 +1621,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1635,13 +1635,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1649,13 +1649,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1663,13 +1663,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1680,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1691,13 +1691,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s">
         <v>105</v>
       </c>
-      <c r="B67" t="s">
-        <v>103</v>
-      </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1736,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1747,13 +1747,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1775,13 +1775,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C74" t="s">
         <v>114</v>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1817,13 +1817,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1834,10 +1834,10 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1845,13 +1845,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1859,13 +1859,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1890,10 +1890,10 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -1901,13 +1901,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
         <v>121</v>
@@ -1929,13 +1929,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -1960,10 +1960,10 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1971,13 +1971,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1999,13 +1999,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2027,13 +2027,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2041,13 +2041,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2058,10 +2058,10 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2069,13 +2069,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" t="s">
         <v>133</v>
       </c>
-      <c r="B94" t="s">
-        <v>131</v>
-      </c>
       <c r="C94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -2083,13 +2083,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2097,13 +2097,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2114,10 +2114,10 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2125,13 +2125,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2139,13 +2139,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2153,13 +2153,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2170,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
         <v>143</v>
       </c>
-      <c r="B102" t="s">
-        <v>141</v>
-      </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2195,13 +2195,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2209,10 +2209,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
         <v>146</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="B105" t="s">
         <v>145</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2265,13 +2265,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2279,13 +2279,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
         <v>151</v>
       </c>
-      <c r="B109" t="s">
-        <v>147</v>
-      </c>
       <c r="C109" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2293,13 +2293,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B110" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C110" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
         <v>154</v>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s">
         <v>153</v>
       </c>
       <c r="C112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C113" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
         <v>157</v>
       </c>
-      <c r="B114" t="s">
-        <v>153</v>
-      </c>
       <c r="C114" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2363,13 +2363,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C115" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -2377,13 +2377,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2391,13 +2391,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C117" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C118" t="s">
         <v>160</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
         <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -2447,13 +2447,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C121" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C122" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -2475,13 +2475,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
         <v>164</v>
       </c>
-      <c r="B123" t="s">
-        <v>161</v>
-      </c>
       <c r="C123" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -2489,13 +2489,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C124" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
         <v>167</v>
@@ -2517,13 +2517,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="B126" t="s">
         <v>166</v>
       </c>
       <c r="C126" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C128" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -2559,13 +2559,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C129" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -2573,13 +2573,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" t="s">
         <v>170</v>
       </c>
-      <c r="B130" t="s">
-        <v>168</v>
-      </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -2587,13 +2587,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C131" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -2601,13 +2601,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="B132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -2618,10 +2618,10 @@
         <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -2629,13 +2629,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
         <v>175</v>
       </c>
-      <c r="B134" t="s">
-        <v>172</v>
-      </c>
       <c r="C134" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
@@ -2643,13 +2643,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B136" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C136" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -2671,13 +2671,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="B137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C137" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
@@ -2688,10 +2688,10 @@
         <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C138" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -2699,13 +2699,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B139" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C139" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
@@ -2713,13 +2713,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B140" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C140" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
@@ -2727,13 +2727,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C141" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
@@ -2741,13 +2741,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="B142" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C142" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
@@ -2755,13 +2755,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B143" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C143" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C144" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -2783,13 +2783,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="B145" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C145" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
@@ -2797,13 +2797,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B146" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C146" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
@@ -2811,13 +2811,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>189</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C147" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
@@ -2825,13 +2825,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="B148" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C148" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
@@ -2839,13 +2839,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="B149" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C149" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
@@ -2853,13 +2853,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C150" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
@@ -2867,13 +2867,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C151" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B152" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C152" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C153" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="B154" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C154" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
@@ -2923,13 +2923,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B155" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C155" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
@@ -2937,13 +2937,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C156" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
@@ -2951,13 +2951,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="B157" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C157" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
@@ -2965,13 +2965,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C158" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
@@ -2979,13 +2979,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C159" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="B160" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C160" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
@@ -3007,13 +3007,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B161" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C161" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
@@ -3021,13 +3021,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C162" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
@@ -3038,10 +3038,10 @@
         <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C163" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -3049,13 +3049,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B164" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C164" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -3063,13 +3063,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B165" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C165" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="B166" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C166" t="s">
         <v>211</v>
@@ -3094,10 +3094,10 @@
         <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C167" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="B168" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C168" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -3119,13 +3119,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="B169" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C169" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C170" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="B171" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C171" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B172" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C172" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -3175,13 +3175,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C173" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -3192,10 +3192,10 @@
         <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C174" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -3203,13 +3203,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B175" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C175" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="B176" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C176" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="B177" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C177" t="s">
         <v>223</v>
@@ -3245,71 +3245,15 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="B178" t="s">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>216</v>
-      </c>
-      <c r="B179" t="s">
-        <v>222</v>
-      </c>
-      <c r="C179" t="s">
-        <v>222</v>
-      </c>
-      <c r="D179" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>105</v>
-      </c>
-      <c r="B180" t="s">
-        <v>224</v>
-      </c>
-      <c r="C180" t="s">
-        <v>224</v>
-      </c>
-      <c r="D180" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>225</v>
-      </c>
-      <c r="B181" t="s">
-        <v>223</v>
-      </c>
-      <c r="C181" t="s">
-        <v>223</v>
-      </c>
-      <c r="D181" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>226</v>
-      </c>
-      <c r="B182" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" t="s">
         <v>7</v>
       </c>
     </row>

--- a/expression_tree_data.xlsx
+++ b/expression_tree_data.xlsx
@@ -759,10 +759,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="111.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="106.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.9140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="104.765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="100.4453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.1875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/expression_tree_data.xlsx
+++ b/expression_tree_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="231">
   <si>
     <t>SÍMBOLO</t>
   </si>
@@ -29,664 +29,676 @@
     <t>.</t>
   </si>
   <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 81, 18, 83, 21, 85, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 81, 18, 83, 21, 85, 23, 87, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 82, 20, 84, 22, 24, 88, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 81, 18, 83, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 82, 20, 84, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 81, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 82, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 75, 15, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 72, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>65, 3, 67, 69, 71, 73, 10, 15, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 70, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 67, 37, 69, 39, 71, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 66, 4, 68, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 67, 37, 69, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 33, 66, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 62, 31</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 67, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
+  </si>
+  <si>
+    <t>64, 1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 62, 31</t>
+  </si>
+  <si>
+    <t>32, 65, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 62, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 24, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 20, 22, 24, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 40, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 43, 15, 17, 20, 22, 24, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 38, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 34, 3, 37, 39, 10, 15, 17, 20, 22, 24, 27, 30</t>
+  </si>
+  <si>
+    <t>1, 33, 35, 4, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 17, 34, 3, 20, 37, 22, 24, 10, 27, 30, 15</t>
+  </si>
+  <si>
+    <t>1, 33, 4, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
+  </si>
+  <si>
+    <t>32, 17, 34, 3, 20, 22, 24, 10, 27, 30, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 21, 7, 23, 25, 11, 28, 14, 31</t>
+  </si>
+  <si>
+    <t>32, 17, 3, 20, 22, 24, 10, 27, 30, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 21, 7, 23, 25, 11, 28, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 20, 22, 24, 10, 27, 30, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 21, 7, 23, 25, 11, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 20, 22, 24, 10, 27, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 21, 7, 23, 11, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 20, 22, 24, 10, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 21, 7, 11, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 20, 22, 10, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 18, 4, 7, 11, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 20, 10, 15</t>
+  </si>
+  <si>
+    <t>16, 1, 4, 7, 11, 14</t>
+  </si>
+  <si>
+    <t>17, 3, 10, 15</t>
+  </si>
+  <si>
+    <t>1, 4, 7, 11, 14</t>
+  </si>
+  <si>
+    <t>3, 10, 15</t>
+  </si>
+  <si>
+    <t>1, 4, 7</t>
+  </si>
+  <si>
+    <t>3, 10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>DIGITO</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>4, 7</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6, 9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>CHARSET</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>11, 14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 14</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>11, 12, 13</t>
+  </si>
+  <si>
+    <t>LETRA</t>
+  </si>
+  <si>
+    <t>12, 13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>RESERVADAS()</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>'+'</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>'*'</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>'('</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>')'</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>'.'</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>T51</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>85, 87</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 82, 20, 84, 22, 87, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 81, 18, 83, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 82, 20, 84, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 81, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 82, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 78, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 80, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 76, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 77, 15, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 74, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 75, 15, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 72, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
-  </si>
-  <si>
-    <t>65, 3, 67, 69, 71, 73, 10, 15, 17, 20, 22, 24, 27, 30, 32, 34, 37, 39, 43, 47, 51, 55, 58, 61, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 70, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
-  </si>
-  <si>
-    <t>32, 65, 34, 3, 67, 37, 69, 39, 71, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 66, 4, 68, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31, 33, 35, 38, 40, 44, 48, 52, 56, 59, 62</t>
-  </si>
-  <si>
-    <t>32, 65, 34, 3, 67, 37, 69, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 33, 66, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 62, 31</t>
-  </si>
-  <si>
-    <t>32, 65, 34, 3, 67, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
-  </si>
-  <si>
-    <t>64, 1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 62, 31</t>
-  </si>
-  <si>
-    <t>32, 65, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 62, 31</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30, 63</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 59, 28, 31</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 61, 30</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 56, 25, 28, 31</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 58, 27, 30</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 52, 21, 23, 25, 28, 31</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 55, 24, 27, 30</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 48, 18, 21, 23, 25, 28, 31</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 51, 20, 22, 24, 27, 30</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 38, 7, 40, 11, 44, 14, 16, 18, 21, 23, 25, 28, 31</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 37, 39, 10, 43, 15, 47, 17, 20, 22, 24, 27, 30</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 38, 7, 40, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 37, 39, 10, 43, 15, 17, 20, 22, 24, 27, 30</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 38, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
-  </si>
-  <si>
-    <t>32, 34, 3, 37, 39, 10, 15, 17, 20, 22, 24, 27, 30</t>
-  </si>
-  <si>
-    <t>1, 33, 35, 4, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
-  </si>
-  <si>
-    <t>32, 17, 34, 3, 20, 37, 22, 24, 10, 27, 30, 15</t>
-  </si>
-  <si>
-    <t>1, 33, 4, 7, 11, 14, 16, 18, 21, 23, 25, 28, 31</t>
-  </si>
-  <si>
-    <t>32, 17, 34, 3, 20, 22, 24, 10, 27, 30, 15</t>
-  </si>
-  <si>
-    <t>16, 1, 18, 4, 21, 7, 23, 25, 11, 28, 14, 31</t>
-  </si>
-  <si>
-    <t>32, 17, 3, 20, 22, 24, 10, 27, 30, 15</t>
-  </si>
-  <si>
-    <t>16, 1, 18, 4, 21, 7, 23, 25, 11, 28, 14</t>
-  </si>
-  <si>
-    <t>17, 3, 20, 22, 24, 10, 27, 30, 15</t>
-  </si>
-  <si>
-    <t>16, 1, 18, 4, 21, 7, 23, 25, 11, 14</t>
-  </si>
-  <si>
-    <t>17, 3, 20, 22, 24, 10, 27, 15</t>
-  </si>
-  <si>
-    <t>16, 1, 18, 4, 21, 7, 23, 11, 14</t>
-  </si>
-  <si>
-    <t>17, 3, 20, 22, 24, 10, 15</t>
-  </si>
-  <si>
-    <t>16, 1, 18, 4, 21, 7, 11, 14</t>
-  </si>
-  <si>
-    <t>17, 3, 20, 22, 10, 15</t>
-  </si>
-  <si>
-    <t>16, 1, 18, 4, 7, 11, 14</t>
-  </si>
-  <si>
-    <t>17, 3, 20, 10, 15</t>
-  </si>
-  <si>
-    <t>16, 1, 4, 7, 11, 14</t>
-  </si>
-  <si>
-    <t>17, 3, 10, 15</t>
-  </si>
-  <si>
-    <t>1, 4, 7, 11, 14</t>
-  </si>
-  <si>
-    <t>3, 10, 15</t>
-  </si>
-  <si>
-    <t>1, 4, 7</t>
-  </si>
-  <si>
-    <t>3, 10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>DIGITO</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>4, 7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6, 9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>CHARSET</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>11, 14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>11, 12, 13, 14</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>11, 12, 13</t>
-  </si>
-  <si>
-    <t>LETRA</t>
-  </si>
-  <si>
-    <t>12, 13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>RESERVADAS()</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>'+'</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>'*'</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>'('</t>
-  </si>
-  <si>
-    <t>T40</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>')'</t>
-  </si>
-  <si>
-    <t>T41</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>T42</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>'.'</t>
-  </si>
-  <si>
-    <t>T43</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>T44</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>T45</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>T46</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>T47</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>T48</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>T49</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>T50</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>T51</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>T52</t>
+    <t>86, 87</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>HOLA()</t>
+  </si>
+  <si>
     <t>87</t>
-  </si>
-  <si>
-    <t>86</t>
   </si>
   <si>
     <t>T53</t>
@@ -753,16 +765,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="104.765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="100.4453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="114.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="106.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.9140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3189,7 +3201,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
         <v>222</v>
@@ -3203,13 +3215,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C175" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -3217,13 +3229,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="B176" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C176" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
@@ -3231,13 +3243,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="B177" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C177" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
@@ -3245,15 +3257,43 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B178" t="s">
+        <v>228</v>
+      </c>
+      <c r="C178" t="s">
+        <v>228</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>229</v>
+      </c>
+      <c r="B179" t="s">
+        <v>223</v>
+      </c>
+      <c r="C179" t="s">
+        <v>223</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>230</v>
+      </c>
+      <c r="B180" t="s">
         <v>6</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C180" t="s">
         <v>6</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D180" t="s">
         <v>7</v>
       </c>
     </row>

--- a/expression_tree_data.xlsx
+++ b/expression_tree_data.xlsx
@@ -771,10 +771,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="114.6796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="106.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.9140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="108.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="100.4453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.1875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
